--- a/data/Oficina_de_procuradora_de_mujeres/opmVicGraf.xlsx
+++ b/data/Oficina_de_procuradora_de_mujeres/opmVicGraf.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana.pagan\Desktop\Comite PARE\OPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlando.hernandez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="10830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Cantidad de víctimas (enero - diciembre 2020)</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Cantidad de víctimas (enero - diciembre 2022)</t>
+  </si>
+  <si>
+    <t>Cantidad de víctimas (enero - diciembre 2023)</t>
+  </si>
+  <si>
+    <t>Cantidad de víctimas (enero - diciembre 2024)</t>
   </si>
 </sst>
 </file>
@@ -325,10 +331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -336,11 +342,11 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="39.125" customWidth="1"/>
     <col min="3" max="3" width="41.375" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
-    <col min="5" max="26" width="10.5" customWidth="1"/>
+    <col min="4" max="6" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -353,8 +359,14 @@
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -367,8 +379,14 @@
       <c r="D2">
         <v>1318</v>
       </c>
+      <c r="E2">
+        <v>984</v>
+      </c>
+      <c r="F2">
+        <v>1369</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -381,8 +399,14 @@
       <c r="D3">
         <v>79</v>
       </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>94</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -395,8 +419,14 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -409,18 +439,24 @@
       <c r="D5">
         <v>55</v>
       </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
